--- a/templates/dataplant/Protein_extraction.xlsx
+++ b/templates/dataplant/Protein_extraction.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -233,121 +233,49 @@
     <t/>
   </si>
   <si>
-    <t>Arg-C</t>
+    <t>Trypsin</t>
   </si>
   <si>
     <t>MS</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/MS_1001303</t>
-  </si>
-  <si>
-    <t>nucleic acid</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1003041</t>
-  </si>
-  <si>
-    <t>emulsion</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000047</t>
-  </si>
-  <si>
-    <t>H&amp;E slide staining</t>
-  </si>
-  <si>
-    <t>user-specific</t>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/ms/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FMS_1001251</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/ms/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FMS_1000882</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/ms/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FMS_1000051</t>
+  </si>
+  <si>
+    <t>IHC slide staining</t>
+  </si>
+  <si>
+    <t>OBI</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/OBI:0002123</t>
   </si>
   <si>
     <t>Good's buffer substance</t>
   </si>
   <si>
-    <t>Trypsin</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1001251</t>
-  </si>
-  <si>
-    <t>peptide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000860</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000051</t>
-  </si>
-  <si>
-    <t>IHC slide staining</t>
-  </si>
-  <si>
-    <t>TrypChymo</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1001312</t>
-  </si>
-  <si>
-    <t>razor peptide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1003015</t>
-  </si>
-  <si>
-    <t>suspension</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000052</t>
-  </si>
-  <si>
-    <t>no cleavage</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1001955</t>
-  </si>
-  <si>
-    <t>peptidoform ion</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1003051</t>
-  </si>
-  <si>
-    <t>gaseous sample state</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000048</t>
-  </si>
-  <si>
-    <t>unspecific cleavage</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1001956</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000882</t>
-  </si>
-  <si>
-    <t>solid sample state</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000050</t>
-  </si>
-  <si>
-    <t>2-idobenzoate</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1003036</t>
-  </si>
-  <si>
-    <t>liquid sample state</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000049</t>
+    <t>https://bioregistry.io/CHEBI:39011</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Reversed-Phase Liquid Chromatography</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/NCIT:C161770</t>
+  </si>
+  <si>
+    <t>Vydac C4 reversed-phase column</t>
   </si>
 </sst>
 </file>
@@ -403,8 +331,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AA7" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:AA7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AA2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:AA2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -963,7 +891,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -1063,43 +991,43 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>74</v>
       </c>
       <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
         <v>77</v>
-      </c>
-      <c r="H2" t="s">
-        <v>78</v>
       </c>
       <c r="I2" t="s">
         <v>74</v>
       </c>
       <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
         <v>79</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>80</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>81</v>
-      </c>
-      <c r="M2" t="s">
-        <v>72</v>
       </c>
       <c r="N2" t="s">
         <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="R2" t="s">
         <v>72</v>
@@ -1111,16 +1039,16 @@
         <v>72</v>
       </c>
       <c r="U2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="V2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="W2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="X2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="Y2" t="s">
         <v>72</v>
@@ -1129,421 +1057,6 @@
         <v>72</v>
       </c>
       <c r="AA2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" t="s">
-        <v>72</v>
-      </c>
-      <c r="V3" t="s">
-        <v>72</v>
-      </c>
-      <c r="W3" t="s">
-        <v>72</v>
-      </c>
-      <c r="X3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T4" t="s">
-        <v>72</v>
-      </c>
-      <c r="U4" t="s">
-        <v>72</v>
-      </c>
-      <c r="V4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" t="s">
-        <v>72</v>
-      </c>
-      <c r="S5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U5" t="s">
-        <v>72</v>
-      </c>
-      <c r="V5" t="s">
-        <v>72</v>
-      </c>
-      <c r="W5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>72</v>
-      </c>
-      <c r="R6" t="s">
-        <v>72</v>
-      </c>
-      <c r="S6" t="s">
-        <v>72</v>
-      </c>
-      <c r="T6" t="s">
-        <v>72</v>
-      </c>
-      <c r="U6" t="s">
-        <v>72</v>
-      </c>
-      <c r="V6" t="s">
-        <v>72</v>
-      </c>
-      <c r="W6" t="s">
-        <v>72</v>
-      </c>
-      <c r="X6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>72</v>
-      </c>
-      <c r="R7" t="s">
-        <v>72</v>
-      </c>
-      <c r="S7" t="s">
-        <v>72</v>
-      </c>
-      <c r="T7" t="s">
-        <v>72</v>
-      </c>
-      <c r="U7" t="s">
-        <v>72</v>
-      </c>
-      <c r="V7" t="s">
-        <v>72</v>
-      </c>
-      <c r="W7" t="s">
-        <v>72</v>
-      </c>
-      <c r="X7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA7" t="s">
         <v>72</v>
       </c>
     </row>

--- a/templates/dataplant/Protein_extraction.xlsx
+++ b/templates/dataplant/Protein_extraction.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.7</t>
+    <t>1.1.8</t>
   </si>
   <si>
     <t>Description</t>
@@ -152,7 +152,7 @@
     <t>Input [Source Name]</t>
   </si>
   <si>
-    <t>Parameter [cleavage agent name]</t>
+    <t>Component [cleavage agent name]</t>
   </si>
   <si>
     <t>Term Source REF (MS:1001045)</t>
@@ -161,7 +161,7 @@
     <t>Term Accession Number (MS:1001045)</t>
   </si>
   <si>
-    <t>Parameter [molecule]</t>
+    <t>Characteristic [molecule]</t>
   </si>
   <si>
     <t>Term Source REF (MS:1000859)</t>
@@ -170,7 +170,7 @@
     <t>Term Accession Number (MS:1000859)</t>
   </si>
   <si>
-    <t>Parameter [sample state]</t>
+    <t>Characteristic [sample state]</t>
   </si>
   <si>
     <t>Term Source REF (MS:1000003)</t>
@@ -188,7 +188,7 @@
     <t>Term Accession Number ()</t>
   </si>
   <si>
-    <t>Parameter [extraction buffer]</t>
+    <t>Component [extraction buffer]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000050)</t>
@@ -218,13 +218,13 @@
     <t>Term Accession Number (MS:1002493)</t>
   </si>
   <si>
-    <t>Parameter [protein column]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Source REF () </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Accession Number () </t>
+    <t>Component [protein column]</t>
+  </si>
+  <si>
+    <t>Term Source REF (OBI:0000468)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (OBI:0000468)</t>
   </si>
   <si>
     <t>Output [Sample Name]</t>
@@ -363,19 +363,19 @@
   </autoFilter>
   <tableColumns count="27">
     <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Parameter [cleavage agent name]" totalsRowFunction="none"/>
+    <tableColumn id="2" name="Component [cleavage agent name]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (MS:1001045)" totalsRowFunction="none"/>
     <tableColumn id="4" name="Term Accession Number (MS:1001045)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Parameter [molecule]" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Characteristic [molecule]" totalsRowFunction="none"/>
     <tableColumn id="6" name="Term Source REF (MS:1000859)" totalsRowFunction="none"/>
     <tableColumn id="7" name="Term Accession Number (MS:1000859)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Parameter [sample state]" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Characteristic [sample state]" totalsRowFunction="none"/>
     <tableColumn id="9" name="Term Source REF (MS:1000003)" totalsRowFunction="none"/>
     <tableColumn id="10" name="Term Accession Number (MS:1000003)" totalsRowFunction="none"/>
     <tableColumn id="11" name="Parameter [staining]" totalsRowFunction="none"/>
     <tableColumn id="12" name="Term Source REF ()" totalsRowFunction="none"/>
     <tableColumn id="13" name="Term Accession Number ()" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Parameter [extraction buffer]" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Component [extraction buffer]" totalsRowFunction="none"/>
     <tableColumn id="15" name="Term Source REF (DPBO:0000050)" totalsRowFunction="none"/>
     <tableColumn id="16" name="Term Accession Number (DPBO:0000050)" totalsRowFunction="none"/>
     <tableColumn id="17" name="Parameter [pH]" totalsRowFunction="none"/>
@@ -385,9 +385,9 @@
     <tableColumn id="21" name="Parameter [sample pre-fractionation]" totalsRowFunction="none"/>
     <tableColumn id="22" name="Term Source REF (MS:1002493)" totalsRowFunction="none"/>
     <tableColumn id="23" name="Term Accession Number (MS:1002493)" totalsRowFunction="none"/>
-    <tableColumn id="24" name="Parameter [protein column]" totalsRowFunction="none"/>
-    <tableColumn id="25" name="Term Source REF () " totalsRowFunction="none"/>
-    <tableColumn id="26" name="Term Accession Number () " totalsRowFunction="none"/>
+    <tableColumn id="24" name="Component [protein column]" totalsRowFunction="none"/>
+    <tableColumn id="25" name="Term Source REF (OBI:0000468)" totalsRowFunction="none"/>
+    <tableColumn id="26" name="Term Accession Number (OBI:0000468)" totalsRowFunction="none"/>
     <tableColumn id="27" name="Output [Sample Name]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>

--- a/templates/dataplant/Protein_extraction.xlsx
+++ b/templates/dataplant/Protein_extraction.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.8</t>
+    <t>1.1.9</t>
   </si>
   <si>
     <t>Description</t>
@@ -182,10 +182,13 @@
     <t>Parameter [staining]</t>
   </si>
   <si>
-    <t>Term Source REF ()</t>
-  </si>
-  <si>
-    <t>Term Accession Number ()</t>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Term Source REF (OBI:0302887)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (OBI:0302887)</t>
   </si>
   <si>
     <t>Component [extraction buffer]</t>
@@ -200,7 +203,7 @@
     <t>Parameter [pH]</t>
   </si>
   <si>
-    <t>Unit</t>
+    <t xml:space="preserve">Unit </t>
   </si>
   <si>
     <t>Term Source REF (UO:0000196)</t>
@@ -331,8 +334,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AA2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:AA2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AB2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:AB2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -360,8 +363,9 @@
     <filterColumn colId="24" hiddenButton="1"/>
     <filterColumn colId="25" hiddenButton="1"/>
     <filterColumn colId="26" hiddenButton="1"/>
+    <filterColumn colId="27" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="27">
+  <tableColumns count="28">
     <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Component [cleavage agent name]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (MS:1001045)" totalsRowFunction="none"/>
@@ -373,22 +377,23 @@
     <tableColumn id="9" name="Term Source REF (MS:1000003)" totalsRowFunction="none"/>
     <tableColumn id="10" name="Term Accession Number (MS:1000003)" totalsRowFunction="none"/>
     <tableColumn id="11" name="Parameter [staining]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF ()" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number ()" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Component [extraction buffer]" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Term Source REF (DPBO:0000050)" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Accession Number (DPBO:0000050)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Parameter [pH]" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Unit" totalsRowFunction="none"/>
-    <tableColumn id="19" name="Term Source REF (UO:0000196)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Term Accession Number (UO:0000196)" totalsRowFunction="none"/>
-    <tableColumn id="21" name="Parameter [sample pre-fractionation]" totalsRowFunction="none"/>
-    <tableColumn id="22" name="Term Source REF (MS:1002493)" totalsRowFunction="none"/>
-    <tableColumn id="23" name="Term Accession Number (MS:1002493)" totalsRowFunction="none"/>
-    <tableColumn id="24" name="Component [protein column]" totalsRowFunction="none"/>
-    <tableColumn id="25" name="Term Source REF (OBI:0000468)" totalsRowFunction="none"/>
-    <tableColumn id="26" name="Term Accession Number (OBI:0000468)" totalsRowFunction="none"/>
-    <tableColumn id="27" name="Output [Sample Name]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Unit" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Source REF (OBI:0302887)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Term Accession Number (OBI:0302887)" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Component [extraction buffer]" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Source REF (DPBO:0000050)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Term Accession Number (DPBO:0000050)" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Parameter [pH]" totalsRowFunction="none"/>
+    <tableColumn id="19" name="Unit " totalsRowFunction="none"/>
+    <tableColumn id="20" name="Term Source REF (UO:0000196)" totalsRowFunction="none"/>
+    <tableColumn id="21" name="Term Accession Number (UO:0000196)" totalsRowFunction="none"/>
+    <tableColumn id="22" name="Parameter [sample pre-fractionation]" totalsRowFunction="none"/>
+    <tableColumn id="23" name="Term Source REF (MS:1002493)" totalsRowFunction="none"/>
+    <tableColumn id="24" name="Term Accession Number (MS:1002493)" totalsRowFunction="none"/>
+    <tableColumn id="25" name="Component [protein column]" totalsRowFunction="none"/>
+    <tableColumn id="26" name="Term Source REF (OBI:0000468)" totalsRowFunction="none"/>
+    <tableColumn id="27" name="Term Accession Number (OBI:0000468)" totalsRowFunction="none"/>
+    <tableColumn id="28" name="Output [Sample Name]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -891,10 +896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AB2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -976,40 +981,43 @@
       <c r="AA1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
         <v>80</v>
@@ -1021,43 +1029,46 @@
         <v>82</v>
       </c>
       <c r="O2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" t="s">
         <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>83</v>
       </c>
       <c r="Q2" t="s">
         <v>84</v>
       </c>
       <c r="R2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="S2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" t="s">
         <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>86</v>
       </c>
       <c r="X2" t="s">
         <v>87</v>
       </c>
       <c r="Y2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="Z2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
